--- a/Resources/2014/Advanced_Percentile_2014.xlsx
+++ b/Resources/2014/Advanced_Percentile_2014.xlsx
@@ -1960,7 +1960,7 @@
     <t>Trevor Booker</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Mike Dunleavy</t>
@@ -2611,7 +2611,7 @@
     <t>Meyers Leonard</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Roger Mason</t>
